--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Number of bugs:</t>
   </si>
@@ -55,12 +55,54 @@
     <t>Average time per bug:</t>
   </si>
   <si>
+    <t>firefox_firefoxandroid_firefoxios_firefoxmetro_fixed_perf</t>
+  </si>
+  <si>
+    <t>95.3785507246 Days, 9.0852173913 Hours, 5.11304347828 Minutes</t>
+  </si>
+  <si>
+    <t>firefox_fixed_all_1000</t>
+  </si>
+  <si>
+    <t>46.8843509615 Days, 21.2244230769 Hours, 13.4653846154 Minutes</t>
+  </si>
+  <si>
+    <t>firefox_fixed_all_3000_func</t>
+  </si>
+  <si>
+    <t>130.888503086 Days, 21.3240740741 Hours, 19.4444444447 Minutes</t>
+  </si>
+  <si>
+    <t>firefox_fixed_all_3000_perf</t>
+  </si>
+  <si>
+    <t>162.311167228 Days, 7.46801346801 Hours, 28.0808080809 Minutes</t>
+  </si>
+  <si>
+    <t>firefox_fixed_perf</t>
+  </si>
+  <si>
+    <t>101.077919708 Days, 1.8700729927 Hours, 52.2043795621 Minutes</t>
+  </si>
+  <si>
     <t>firefoxandroid_fixed_all_1000</t>
   </si>
   <si>
     <t>32.5375464109 Days, 12.9011138614 Hours, 54.0668316832 Minutes</t>
   </si>
   <si>
+    <t>firefoxandroid_fixed_all_3000_func</t>
+  </si>
+  <si>
+    <t>46.361756651 Days, 8.68215962441 Hours, 40.9295774648 Minutes</t>
+  </si>
+  <si>
+    <t>firefoxandroid_fixed_all_3000_perf</t>
+  </si>
+  <si>
+    <t>42.7165075679 Days, 17.1961816305 Hours, 11.7708978328 Minutes</t>
+  </si>
+  <si>
     <t>firefoxios_fixed_all_1000</t>
   </si>
   <si>
@@ -73,34 +115,16 @@
     <t>29.2284935897 Days, 5.48384615385 Hours, 29.0307692308 Minutes</t>
   </si>
   <si>
-    <t>firefoxmetro_fixed_all_1000_nonperf</t>
-  </si>
-  <si>
-    <t>38.0559653916 Days, 1.34316939891 Hours, 20.5901639344 Minutes</t>
-  </si>
-  <si>
-    <t>firefoxmetro_fixed_all_1000_perf</t>
-  </si>
-  <si>
-    <t>55.8684397163 Days, 20.8425531915 Hours, 50.5531914894 Minutes</t>
-  </si>
-  <si>
-    <t>firefox_firefoxandroid_firefoxios_firefoxmetro_fixed_perf</t>
-  </si>
-  <si>
-    <t>95.3785507246 Days, 9.0852173913 Hours, 5.11304347828 Minutes</t>
-  </si>
-  <si>
-    <t>firefox_fixed_all_1000</t>
-  </si>
-  <si>
-    <t>46.8843509615 Days, 21.2244230769 Hours, 13.4653846154 Minutes</t>
-  </si>
-  <si>
-    <t>firefox_fixed_perf</t>
-  </si>
-  <si>
-    <t>101.077919708 Days, 1.8700729927 Hours, 52.2043795621 Minutes</t>
+    <t>firefoxmetro_fixed_all_3000_func</t>
+  </si>
+  <si>
+    <t>40.2241701389 Days, 5.38008333333 Hours, 22.805 Minutes</t>
+  </si>
+  <si>
+    <t>firefoxmetro_fixed_all_3000_perf</t>
+  </si>
+  <si>
+    <t>53.4410935814 Days, 10.5862459547 Hours, 35.1747572816 Minutes</t>
   </si>
 </sst>
 </file>
@@ -432,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -463,356 +487,512 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>448</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2">
+        <v>720</v>
+      </c>
+      <c r="E2">
+        <v>319</v>
+      </c>
+      <c r="F2">
+        <v>345</v>
+      </c>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="E2">
-        <v>201</v>
-      </c>
-      <c r="F2">
-        <v>103</v>
-      </c>
-      <c r="G2">
-        <v>448</v>
-      </c>
       <c r="H2">
+        <v>954</v>
+      </c>
+      <c r="I2">
+        <v>399</v>
+      </c>
+      <c r="J2">
         <v>1000</v>
       </c>
-      <c r="I2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>220</v>
+      </c>
+      <c r="M2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>345</v>
+      </c>
+      <c r="C3">
+        <v>520</v>
+      </c>
+      <c r="D3">
+        <v>423</v>
+      </c>
+      <c r="E3">
+        <v>198</v>
+      </c>
+      <c r="F3">
+        <v>274</v>
+      </c>
+      <c r="G3">
         <v>808</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>781</v>
+      </c>
+      <c r="I3">
+        <v>323</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="K3">
         <v>845</v>
       </c>
-      <c r="E3">
-        <v>183</v>
-      </c>
-      <c r="F3">
-        <v>94</v>
-      </c>
-      <c r="G3">
-        <v>345</v>
-      </c>
-      <c r="H3">
-        <v>520</v>
-      </c>
-      <c r="I3">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>19.6383928571429</v>
+      </c>
+      <c r="C4">
+        <v>17.149</v>
+      </c>
+      <c r="D4">
+        <v>23.1694444444444</v>
+      </c>
+      <c r="E4">
+        <v>24.9404388714734</v>
+      </c>
+      <c r="F4">
+        <v>20.1855072463768</v>
+      </c>
+      <c r="G4">
         <v>17.844</v>
       </c>
-      <c r="C4">
+      <c r="H4">
+        <v>22.4905660377358</v>
+      </c>
+      <c r="I4">
+        <v>21.3333333333333</v>
+      </c>
+      <c r="J4">
         <v>6.607</v>
       </c>
-      <c r="D4">
+      <c r="K4">
         <v>12.067</v>
       </c>
-      <c r="E4">
-        <v>19.3532338308458</v>
-      </c>
-      <c r="F4">
-        <v>16.6990291262136</v>
-      </c>
-      <c r="G4">
-        <v>19.6383928571429</v>
-      </c>
-      <c r="H4">
-        <v>17.149</v>
-      </c>
-      <c r="I4">
-        <v>20.1855072463768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4">
+        <v>19.4727272727273</v>
+      </c>
+      <c r="M4">
+        <v>18.4298245614035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>292</v>
+      </c>
+      <c r="D5">
+        <v>292</v>
+      </c>
+      <c r="E5">
+        <v>197</v>
+      </c>
+      <c r="F5">
+        <v>170</v>
+      </c>
+      <c r="G5">
         <v>378</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1112</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
         <v>52</v>
       </c>
-      <c r="D5">
+      <c r="K5">
         <v>146</v>
       </c>
-      <c r="E5">
+      <c r="L5">
         <v>114</v>
       </c>
-      <c r="F5">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>170</v>
-      </c>
-      <c r="H5">
-        <v>292</v>
-      </c>
-      <c r="I5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="M5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.13169642857143</v>
+      </c>
+      <c r="C6">
+        <v>0.789</v>
+      </c>
+      <c r="D6">
+        <v>0.851388888888889</v>
+      </c>
+      <c r="E6">
+        <v>1.01567398119122</v>
+      </c>
+      <c r="F6">
+        <v>1.11884057971014</v>
+      </c>
+      <c r="G6">
         <v>1.135</v>
       </c>
-      <c r="C6">
+      <c r="H6">
+        <v>1.26205450733753</v>
+      </c>
+      <c r="I6">
+        <v>1.33834586466165</v>
+      </c>
+      <c r="J6">
         <v>0.007</v>
       </c>
-      <c r="D6">
+      <c r="K6">
         <v>1.123</v>
       </c>
-      <c r="E6">
-        <v>1.3681592039801</v>
-      </c>
-      <c r="F6">
-        <v>1.28155339805825</v>
-      </c>
-      <c r="G6">
-        <v>1.13169642857143</v>
-      </c>
-      <c r="H6">
-        <v>0.789</v>
-      </c>
-      <c r="I6">
-        <v>1.11884057971014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6">
+        <v>1.35909090909091</v>
+      </c>
+      <c r="M6">
+        <v>1.35087719298246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6.03571428571429</v>
+      </c>
+      <c r="C8">
+        <v>6.28</v>
+      </c>
+      <c r="D8">
+        <v>8.24305555555556</v>
+      </c>
+      <c r="E8">
+        <v>8.2884012539185</v>
+      </c>
+      <c r="F8">
+        <v>6.1768115942029</v>
+      </c>
+      <c r="G8">
         <v>6.141</v>
       </c>
-      <c r="C8">
+      <c r="H8">
+        <v>6.36792452830189</v>
+      </c>
+      <c r="I8">
+        <v>6.29323308270677</v>
+      </c>
+      <c r="J8">
         <v>2.732</v>
       </c>
-      <c r="D8">
+      <c r="K8">
         <v>4.388</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>5.40776699029126</v>
-      </c>
-      <c r="G8">
-        <v>6.03571428571429</v>
-      </c>
-      <c r="H8">
-        <v>6.28</v>
-      </c>
-      <c r="I8">
-        <v>6.1768115942029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8">
+        <v>6.08181818181818</v>
+      </c>
+      <c r="M8">
+        <v>5.62280701754386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="L9">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="M9">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>73</v>
-      </c>
-      <c r="I9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>110.165178571429</v>
+      </c>
+      <c r="C10">
+        <v>43.522</v>
+      </c>
+      <c r="D10">
+        <v>44.6388888888889</v>
+      </c>
+      <c r="E10">
+        <v>147.664576802508</v>
+      </c>
+      <c r="F10">
+        <v>122.994202898551</v>
+      </c>
+      <c r="G10">
         <v>43.128</v>
       </c>
-      <c r="C10">
+      <c r="H10">
+        <v>48.9716981132075</v>
+      </c>
+      <c r="I10">
+        <v>224.902255639098</v>
+      </c>
+      <c r="J10">
         <v>0.199</v>
       </c>
-      <c r="D10">
+      <c r="K10">
         <v>100.071</v>
       </c>
-      <c r="E10">
-        <v>75.3432835820896</v>
-      </c>
-      <c r="F10">
-        <v>102.388349514563</v>
-      </c>
-      <c r="G10">
-        <v>110.165178571429</v>
-      </c>
-      <c r="H10">
-        <v>43.522</v>
-      </c>
-      <c r="I10">
-        <v>122.994202898551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10">
+        <v>72.1909090909091</v>
+      </c>
+      <c r="M10">
+        <v>99.6578947368421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>143.055072463768</v>
+      </c>
+      <c r="C11">
+        <v>83.6961538461538</v>
+      </c>
+      <c r="D11">
+        <v>75.9810874704492</v>
+      </c>
+      <c r="E11">
+        <v>237.90404040404</v>
+      </c>
+      <c r="F11">
+        <v>154.86496350365</v>
+      </c>
+      <c r="G11">
         <v>53.3762376237624</v>
       </c>
-      <c r="C11">
+      <c r="H11">
+        <v>59.8194622279129</v>
+      </c>
+      <c r="I11">
+        <v>277.820433436532</v>
+      </c>
+      <c r="J11">
         <v>28.4285714285714</v>
       </c>
-      <c r="D11">
+      <c r="K11">
         <v>118.427218934911</v>
       </c>
-      <c r="E11">
-        <v>82.7540983606557</v>
-      </c>
-      <c r="F11">
-        <v>112.191489361702</v>
-      </c>
-      <c r="G11">
-        <v>143.055072463768</v>
-      </c>
-      <c r="H11">
-        <v>83.6961538461538</v>
-      </c>
-      <c r="I11">
-        <v>154.86496350365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11">
+        <v>79.41</v>
+      </c>
+      <c r="M11">
+        <v>110.300970873786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>80.6450892857143</v>
+      </c>
+      <c r="C12">
+        <v>29.136</v>
+      </c>
+      <c r="D12">
+        <v>28.3375</v>
+      </c>
+      <c r="E12">
+        <v>58.7836990595611</v>
+      </c>
+      <c r="F12">
+        <v>94.4260869565217</v>
+      </c>
+      <c r="G12">
         <v>27.045</v>
       </c>
-      <c r="C12">
+      <c r="H12">
+        <v>27.4989517819706</v>
+      </c>
+      <c r="I12">
+        <v>45.2606516290727</v>
+      </c>
+      <c r="J12">
         <v>0.444</v>
       </c>
-      <c r="D12">
+      <c r="K12">
         <v>116.144</v>
       </c>
-      <c r="E12">
-        <v>383.179104477612</v>
-      </c>
-      <c r="F12">
-        <v>89.3592233009709</v>
-      </c>
-      <c r="G12">
-        <v>80.6450892857143</v>
-      </c>
-      <c r="H12">
-        <v>29.136</v>
-      </c>
-      <c r="I12">
-        <v>94.4260869565217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12">
+        <v>351.359090909091</v>
+      </c>
+      <c r="M12">
+        <v>83.6052631578947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>104.721739130435</v>
+      </c>
+      <c r="C13">
+        <v>56.0307692307692</v>
+      </c>
+      <c r="D13">
+        <v>48.2340425531915</v>
+      </c>
+      <c r="E13">
+        <v>94.7070707070707</v>
+      </c>
+      <c r="F13">
+        <v>118.894160583942</v>
+      </c>
+      <c r="G13">
         <v>33.4715346534653</v>
       </c>
-      <c r="C13">
+      <c r="H13">
+        <v>33.5902688860435</v>
+      </c>
+      <c r="I13">
+        <v>55.9102167182663</v>
+      </c>
+      <c r="J13">
         <v>63.4285714285714</v>
       </c>
-      <c r="D13">
+      <c r="K13">
         <v>137.448520710059</v>
       </c>
-      <c r="E13">
-        <v>420.868852459016</v>
-      </c>
-      <c r="F13">
-        <v>97.9148936170213</v>
-      </c>
-      <c r="G13">
-        <v>104.721739130435</v>
-      </c>
-      <c r="H13">
-        <v>56.0307692307692</v>
-      </c>
-      <c r="I13">
-        <v>118.894160583942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13">
+        <v>386.495</v>
+      </c>
+      <c r="M13">
+        <v>92.5339805825243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -839,6 +1019,18 @@
       </c>
       <c r="I14" t="s">
         <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
